--- a/Code/Results/Cases/Case_3_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.11424353545811</v>
+        <v>19.97606611088952</v>
       </c>
       <c r="C2">
-        <v>14.45156007731271</v>
+        <v>8.599995403956191</v>
       </c>
       <c r="D2">
-        <v>4.518799931717258</v>
+        <v>7.737317456828754</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.58672577019785</v>
+        <v>37.90483260778424</v>
       </c>
       <c r="G2">
-        <v>34.14027725920988</v>
+        <v>43.60082851509443</v>
       </c>
       <c r="H2">
-        <v>11.24973579155867</v>
+        <v>17.9380994333733</v>
       </c>
       <c r="I2">
-        <v>16.84539780721728</v>
+        <v>27.32989560936187</v>
       </c>
       <c r="J2">
-        <v>5.762349087366236</v>
+        <v>10.0497792957749</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.251354904826755</v>
+        <v>12.24134710680623</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46542982479541</v>
+        <v>19.46018987957777</v>
       </c>
       <c r="C3">
-        <v>13.56142977141461</v>
+        <v>8.125619055478154</v>
       </c>
       <c r="D3">
-        <v>4.445939639904499</v>
+        <v>7.732247548079606</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.16349241140886</v>
+        <v>37.99976338138324</v>
       </c>
       <c r="G3">
-        <v>33.26681853913846</v>
+        <v>43.67005390430137</v>
       </c>
       <c r="H3">
-        <v>11.2425580320638</v>
+        <v>18.00423218823858</v>
       </c>
       <c r="I3">
-        <v>17.03358409016301</v>
+        <v>27.47614163458842</v>
       </c>
       <c r="J3">
-        <v>5.833420450423206</v>
+        <v>10.07572138251402</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.011346278660035</v>
+        <v>12.22312599818097</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44515992297793</v>
+        <v>19.13912887565604</v>
       </c>
       <c r="C4">
-        <v>12.98637902732165</v>
+        <v>7.818335729163691</v>
       </c>
       <c r="D4">
-        <v>4.401457796207064</v>
+        <v>7.729529556533748</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.93353917720324</v>
+        <v>38.06910172073336</v>
       </c>
       <c r="G4">
-        <v>32.77287822517958</v>
+        <v>43.72919580645645</v>
       </c>
       <c r="H4">
-        <v>11.25002335973989</v>
+        <v>18.0488883786246</v>
       </c>
       <c r="I4">
-        <v>17.16991812678003</v>
+        <v>27.57275885126436</v>
       </c>
       <c r="J4">
-        <v>5.878359864952609</v>
+        <v>10.09248596293991</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.863998847746938</v>
+        <v>12.21360417817052</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01654948404757</v>
+        <v>19.00739900826221</v>
       </c>
       <c r="C5">
-        <v>12.74488273688523</v>
+        <v>7.689144434008319</v>
       </c>
       <c r="D5">
-        <v>4.383403392009525</v>
+        <v>7.728521936733896</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.84717405528177</v>
+        <v>38.1001243032461</v>
       </c>
       <c r="G5">
-        <v>32.5821723725093</v>
+        <v>43.75745709962156</v>
       </c>
       <c r="H5">
-        <v>11.25591071021527</v>
+        <v>18.06810181854071</v>
       </c>
       <c r="I5">
-        <v>17.23038688295198</v>
+        <v>27.61384196384601</v>
       </c>
       <c r="J5">
-        <v>5.897008226123813</v>
+        <v>10.0995285229267</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.804027848892095</v>
+        <v>12.21014560647106</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94460515216231</v>
+        <v>18.98547703205256</v>
       </c>
       <c r="C6">
-        <v>12.70435076770267</v>
+        <v>7.667454386630306</v>
       </c>
       <c r="D6">
-        <v>4.380410091980389</v>
+        <v>7.728360680311384</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.83327093848058</v>
+        <v>38.10544230783991</v>
       </c>
       <c r="G6">
-        <v>32.5511416007725</v>
+        <v>43.76240041979576</v>
       </c>
       <c r="H6">
-        <v>11.2570560608371</v>
+        <v>18.07135345652575</v>
       </c>
       <c r="I6">
-        <v>17.24071547026961</v>
+        <v>27.6207669814287</v>
       </c>
       <c r="J6">
-        <v>5.900125242526266</v>
+        <v>10.10071068843276</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.794076316147483</v>
+        <v>12.20959685445451</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43943145777271</v>
+        <v>19.13735568696816</v>
       </c>
       <c r="C7">
-        <v>12.98315108159413</v>
+        <v>7.816609404312063</v>
       </c>
       <c r="D7">
-        <v>4.401214004070112</v>
+        <v>7.72951556170162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.9323449520529</v>
+        <v>38.06950891679304</v>
       </c>
       <c r="G7">
-        <v>32.77026360037833</v>
+        <v>43.72956013518591</v>
       </c>
       <c r="H7">
-        <v>11.25009142318515</v>
+        <v>18.04914338916826</v>
       </c>
       <c r="I7">
-        <v>17.17071414551409</v>
+        <v>27.57330599147209</v>
       </c>
       <c r="J7">
-        <v>5.878609995847881</v>
+        <v>10.09258008678052</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.863189661908653</v>
+        <v>12.21355582401718</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.55708389384795</v>
+        <v>19.79919706693741</v>
       </c>
       <c r="C8">
-        <v>14.15056005875802</v>
+        <v>8.43978399665391</v>
       </c>
       <c r="D8">
-        <v>4.49362959260922</v>
+        <v>7.735487783885178</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.43448600688802</v>
+        <v>37.93526420969756</v>
       </c>
       <c r="G8">
-        <v>33.8302845523696</v>
+        <v>43.62123134349037</v>
       </c>
       <c r="H8">
-        <v>11.24471211487992</v>
+        <v>17.9600596582092</v>
       </c>
       <c r="I8">
-        <v>16.9057741984371</v>
+        <v>27.37890268563205</v>
       </c>
       <c r="J8">
-        <v>5.786589321743559</v>
+        <v>10.05855098840917</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.168636221027354</v>
+        <v>12.23472038138953</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.35931203142225</v>
+        <v>21.05507946396622</v>
       </c>
       <c r="C9">
-        <v>16.21414855533304</v>
+        <v>9.532893579650446</v>
       </c>
       <c r="D9">
-        <v>4.676559606145032</v>
+        <v>7.750304003829359</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.66336319139688</v>
+        <v>37.76019318263818</v>
       </c>
       <c r="G9">
-        <v>36.24650809066588</v>
+        <v>43.54170507451144</v>
       </c>
       <c r="H9">
-        <v>11.33467096305183</v>
+        <v>17.81762971428136</v>
       </c>
       <c r="I9">
-        <v>16.56631964424441</v>
+        <v>27.05200884794935</v>
       </c>
       <c r="J9">
-        <v>5.616080905331955</v>
+        <v>9.998424728742711</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.764992333175201</v>
+        <v>12.28931554659242</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.88316780157157</v>
+        <v>21.94255358571565</v>
       </c>
       <c r="C10">
-        <v>17.59450274310181</v>
+        <v>10.25557549827767</v>
       </c>
       <c r="D10">
-        <v>4.811658427293187</v>
+        <v>7.763043700401792</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.72306534568325</v>
+        <v>37.68595509731887</v>
       </c>
       <c r="G10">
-        <v>38.22777409999845</v>
+        <v>43.56532326443926</v>
       </c>
       <c r="H10">
-        <v>11.47068189363898</v>
+        <v>17.73282291273065</v>
       </c>
       <c r="I10">
-        <v>16.44899275258956</v>
+        <v>26.84524436793614</v>
       </c>
       <c r="J10">
-        <v>5.496305156986133</v>
+        <v>9.9582357989598</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.1982978579723</v>
+        <v>12.33722460013535</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.97461667316253</v>
+        <v>22.33684032364144</v>
       </c>
       <c r="C11">
-        <v>18.19365045002391</v>
+        <v>10.56664460532499</v>
       </c>
       <c r="D11">
-        <v>4.873227010888275</v>
+        <v>7.769233498175968</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.24063845456996</v>
+        <v>37.66410498497262</v>
       </c>
       <c r="G11">
-        <v>39.17377248413389</v>
+        <v>43.59403381539821</v>
       </c>
       <c r="H11">
-        <v>11.54959219298634</v>
+        <v>17.69858434924245</v>
       </c>
       <c r="I11">
-        <v>16.42950441260508</v>
+        <v>26.75849802430112</v>
       </c>
       <c r="J11">
-        <v>5.442875794284546</v>
+        <v>9.940809659347149</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.393833211432961</v>
+        <v>12.3606692737801</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.37993178496917</v>
+        <v>22.484656631738</v>
       </c>
       <c r="C12">
-        <v>18.4164628807338</v>
+        <v>10.68188297853911</v>
       </c>
       <c r="D12">
-        <v>4.896555868328845</v>
+        <v>7.771633366093374</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.44184383955587</v>
+        <v>37.6575525910483</v>
       </c>
       <c r="G12">
-        <v>39.53843370451403</v>
+        <v>43.60749608163418</v>
       </c>
       <c r="H12">
-        <v>11.58207558223003</v>
+        <v>17.68624604951725</v>
       </c>
       <c r="I12">
-        <v>16.4274519914117</v>
+        <v>26.72670635173462</v>
       </c>
       <c r="J12">
-        <v>5.422783715523319</v>
+        <v>9.934333275295625</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.467616266177643</v>
+        <v>12.36978040907299</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.29299281972242</v>
+        <v>22.45289011309291</v>
       </c>
       <c r="C13">
-        <v>18.36865613824792</v>
+        <v>10.65717822082975</v>
       </c>
       <c r="D13">
-        <v>4.891530959413488</v>
+        <v>7.771114037120245</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.39827714904179</v>
+        <v>37.65888708310462</v>
       </c>
       <c r="G13">
-        <v>39.45961093047431</v>
+        <v>43.60448147420117</v>
       </c>
       <c r="H13">
-        <v>11.57496156979655</v>
+        <v>17.68887538652334</v>
       </c>
       <c r="I13">
-        <v>16.42764966354468</v>
+        <v>26.73350614004512</v>
       </c>
       <c r="J13">
-        <v>5.427104850025931</v>
+        <v>9.935722640630781</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.451737883172818</v>
+        <v>12.36780786318566</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.00812145235809</v>
+        <v>22.34903188682911</v>
       </c>
       <c r="C14">
-        <v>18.21206254179843</v>
+        <v>10.57617664102889</v>
       </c>
       <c r="D14">
-        <v>4.875146009565167</v>
+        <v>7.769429820527947</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.25708667633019</v>
+        <v>37.6635313699274</v>
       </c>
       <c r="G14">
-        <v>39.20364434497768</v>
+        <v>43.59508942734101</v>
       </c>
       <c r="H14">
-        <v>11.55221160764016</v>
+        <v>17.69755668525623</v>
       </c>
       <c r="I14">
-        <v>16.42922612605025</v>
+        <v>26.75586128086049</v>
       </c>
       <c r="J14">
-        <v>5.441220060966854</v>
+        <v>9.940274391196487</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.399908808206582</v>
+        <v>12.36141420465694</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.83259339911528</v>
+        <v>22.28521766401875</v>
       </c>
       <c r="C15">
-        <v>18.11561636437564</v>
+        <v>10.52622753160525</v>
       </c>
       <c r="D15">
-        <v>4.865111578821685</v>
+        <v>7.768405448555174</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.17128533370619</v>
+        <v>37.6666005577552</v>
       </c>
       <c r="G15">
-        <v>39.04769568345846</v>
+        <v>43.58967398422666</v>
       </c>
       <c r="H15">
-        <v>11.53861993328392</v>
+        <v>17.70295598461147</v>
       </c>
       <c r="I15">
-        <v>16.43089932055947</v>
+        <v>26.76969231503901</v>
       </c>
       <c r="J15">
-        <v>5.449883970379974</v>
+        <v>9.943078408139842</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.368126994160933</v>
+        <v>12.35752813803634</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.8107118569613</v>
+        <v>21.91658441205712</v>
       </c>
       <c r="C16">
-        <v>17.55477332166325</v>
+        <v>10.2348892789195</v>
       </c>
       <c r="D16">
-        <v>4.807636815316582</v>
+        <v>7.762647052241434</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.68996423389051</v>
+        <v>37.68762360781144</v>
       </c>
       <c r="G16">
-        <v>38.16685016244841</v>
+        <v>43.56380914410159</v>
       </c>
       <c r="H16">
-        <v>11.46588073542136</v>
+        <v>17.73514807840267</v>
       </c>
       <c r="I16">
-        <v>16.45098669866233</v>
+        <v>26.85106107655992</v>
       </c>
       <c r="J16">
-        <v>5.49981719503935</v>
+        <v>9.959391813873379</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.185484226642332</v>
+        <v>12.33572529525927</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.16941467353169</v>
+        <v>21.68792445316495</v>
       </c>
       <c r="C17">
-        <v>17.20338642530202</v>
+        <v>10.05162230706417</v>
       </c>
       <c r="D17">
-        <v>4.772404529063358</v>
+        <v>7.759214929299107</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.40385879056921</v>
+        <v>37.70357959049962</v>
       </c>
       <c r="G17">
-        <v>37.63792491206716</v>
+        <v>43.5525494184204</v>
       </c>
       <c r="H17">
-        <v>11.42572937789497</v>
+        <v>17.75601070517299</v>
       </c>
       <c r="I17">
-        <v>16.47230643764721</v>
+        <v>26.90285504949436</v>
       </c>
       <c r="J17">
-        <v>5.530712411534322</v>
+        <v>9.969618392488378</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.07300713523216</v>
+        <v>12.32276979318955</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.79521394664424</v>
+        <v>21.55552506395566</v>
       </c>
       <c r="C18">
-        <v>16.99856409195116</v>
+        <v>9.944548141140436</v>
       </c>
       <c r="D18">
-        <v>4.752150339075557</v>
+        <v>7.757278038733677</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.24263467144593</v>
+        <v>37.71387875007567</v>
       </c>
       <c r="G18">
-        <v>37.33790807308299</v>
+        <v>43.54776404367193</v>
       </c>
       <c r="H18">
-        <v>11.40423003243368</v>
+        <v>17.76841871068196</v>
       </c>
       <c r="I18">
-        <v>16.48772997246591</v>
+        <v>26.93333344319789</v>
       </c>
       <c r="J18">
-        <v>5.548582772352824</v>
+        <v>9.975581055496837</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.008166384533496</v>
+        <v>12.31547375997825</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.66759367577272</v>
+        <v>21.51055005097414</v>
       </c>
       <c r="C19">
-        <v>16.92874680553861</v>
+        <v>9.908009403946616</v>
       </c>
       <c r="D19">
-        <v>4.745294507877964</v>
+        <v>7.756628649780341</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.18861675508648</v>
+        <v>37.71755827323876</v>
       </c>
       <c r="G19">
-        <v>37.23705044362156</v>
+        <v>43.54643395462848</v>
       </c>
       <c r="H19">
-        <v>11.39721998727495</v>
+        <v>17.77268989590717</v>
       </c>
       <c r="I19">
-        <v>16.49348143727381</v>
+        <v>26.94377086943754</v>
       </c>
       <c r="J19">
-        <v>5.554650926909098</v>
+        <v>9.977613772431187</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.986188396846426</v>
+        <v>12.31303030250584</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.23823379593447</v>
+        <v>21.71235781607785</v>
       </c>
       <c r="C20">
-        <v>17.24107258839504</v>
+        <v>10.07130370744802</v>
       </c>
       <c r="D20">
-        <v>4.776154000129623</v>
+        <v>7.759576442811618</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.43396916645988</v>
+        <v>37.70176489879378</v>
       </c>
       <c r="G20">
-        <v>37.69379457425393</v>
+        <v>43.5535729718036</v>
       </c>
       <c r="H20">
-        <v>11.42983741974022</v>
+        <v>17.75374755609394</v>
       </c>
       <c r="I20">
-        <v>16.46970652349106</v>
+        <v>26.89727025851173</v>
       </c>
       <c r="J20">
-        <v>5.527413268804865</v>
+        <v>9.968521417552848</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.084995998567342</v>
+        <v>12.32413285127813</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09201071113883</v>
+        <v>22.37957906635246</v>
       </c>
       <c r="C21">
-        <v>18.25816779164537</v>
+        <v>10.60003824739553</v>
       </c>
       <c r="D21">
-        <v>4.879958286823331</v>
+        <v>7.769923004374793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.29841543936442</v>
+        <v>37.66212044795931</v>
       </c>
       <c r="G21">
-        <v>39.27865319164845</v>
+        <v>43.59777776666773</v>
       </c>
       <c r="H21">
-        <v>11.55882200125954</v>
+        <v>17.69498973493246</v>
       </c>
       <c r="I21">
-        <v>16.42861479051136</v>
+        <v>26.74926629260315</v>
       </c>
       <c r="J21">
-        <v>5.437070365496019</v>
+        <v>9.938934111214595</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.415139610379839</v>
+        <v>12.36328588426457</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.25705235158034</v>
+        <v>22.80689841203506</v>
       </c>
       <c r="C22">
-        <v>18.89920421864843</v>
+        <v>10.93069065820876</v>
       </c>
       <c r="D22">
-        <v>4.947883601087734</v>
+        <v>7.777010678624226</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.89381185027396</v>
+        <v>37.64624893588406</v>
       </c>
       <c r="G22">
-        <v>40.35196806375054</v>
+        <v>43.64176637932118</v>
       </c>
       <c r="H22">
-        <v>11.65835672810144</v>
+        <v>17.66024463951168</v>
       </c>
       <c r="I22">
-        <v>16.43303314628718</v>
+        <v>26.65870259255686</v>
       </c>
       <c r="J22">
-        <v>5.378838806021185</v>
+        <v>9.920310953904831</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.62937057610894</v>
+        <v>12.39023150316655</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.63944906589226</v>
+        <v>22.57967223755009</v>
       </c>
       <c r="C23">
-        <v>18.55921380559035</v>
+        <v>10.75558266772769</v>
       </c>
       <c r="D23">
-        <v>4.911623051723621</v>
+        <v>7.77319832811679</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.57321702571569</v>
+        <v>37.65379916940309</v>
       </c>
       <c r="G23">
-        <v>39.7756770936691</v>
+        <v>43.61690607713946</v>
       </c>
       <c r="H23">
-        <v>11.60378886197753</v>
+        <v>17.6784532241916</v>
       </c>
       <c r="I23">
-        <v>16.42765899867287</v>
+        <v>26.70647204798446</v>
       </c>
       <c r="J23">
-        <v>5.409847755881747</v>
+        <v>9.930185354517791</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.515181486603506</v>
+        <v>12.37572741444322</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.2071378461051</v>
+        <v>21.70131440931885</v>
       </c>
       <c r="C24">
-        <v>17.22404341695468</v>
+        <v>10.06241107643242</v>
       </c>
       <c r="D24">
-        <v>4.774458859978018</v>
+        <v>7.759412889501085</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.42034611389332</v>
+        <v>37.7025818144096</v>
       </c>
       <c r="G24">
-        <v>37.66852322460382</v>
+        <v>43.55310496573249</v>
       </c>
       <c r="H24">
-        <v>11.42797525106046</v>
+        <v>17.75476943696456</v>
       </c>
       <c r="I24">
-        <v>16.47087211591086</v>
+        <v>26.89979295817403</v>
       </c>
       <c r="J24">
-        <v>5.528904473071139</v>
+        <v>9.969017100499244</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.079576379423477</v>
+        <v>12.32351613813727</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.37865124212981</v>
+        <v>20.72086443563124</v>
       </c>
       <c r="C25">
-        <v>15.67991916644364</v>
+        <v>9.251201496383379</v>
       </c>
       <c r="D25">
-        <v>4.626929225999846</v>
+        <v>7.745967350735469</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.30388689248296</v>
+        <v>37.79804509810899</v>
       </c>
       <c r="G25">
-        <v>35.55662365472322</v>
+        <v>43.54887219318033</v>
       </c>
       <c r="H25">
-        <v>11.29868244294282</v>
+        <v>17.85268922983849</v>
       </c>
       <c r="I25">
-        <v>16.63665173828111</v>
+        <v>27.13459697123688</v>
       </c>
       <c r="J25">
-        <v>5.661199704089888</v>
+        <v>10.01398760648383</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.604303675492076</v>
+        <v>12.27316251582346</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.97606611088952</v>
+        <v>24.11424353545814</v>
       </c>
       <c r="C2">
-        <v>8.599995403956191</v>
+        <v>14.45156007731269</v>
       </c>
       <c r="D2">
-        <v>7.737317456828754</v>
+        <v>4.518799931717197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.90483260778424</v>
+        <v>26.58672577019779</v>
       </c>
       <c r="G2">
-        <v>43.60082851509443</v>
+        <v>34.14027725920995</v>
       </c>
       <c r="H2">
-        <v>17.9380994333733</v>
+        <v>11.24973579155864</v>
       </c>
       <c r="I2">
-        <v>27.32989560936187</v>
+        <v>16.84539780721724</v>
       </c>
       <c r="J2">
-        <v>10.0497792957749</v>
+        <v>5.762349087366371</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.24134710680623</v>
+        <v>8.25135490482679</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.46018987957777</v>
+        <v>22.46542982479542</v>
       </c>
       <c r="C3">
-        <v>8.125619055478154</v>
+        <v>13.56142977141463</v>
       </c>
       <c r="D3">
-        <v>7.732247548079606</v>
+        <v>4.445939639904376</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.99976338138324</v>
+        <v>26.16349241140887</v>
       </c>
       <c r="G3">
-        <v>43.67005390430137</v>
+        <v>33.26681853913856</v>
       </c>
       <c r="H3">
-        <v>18.00423218823858</v>
+        <v>11.24255803206382</v>
       </c>
       <c r="I3">
-        <v>27.47614163458842</v>
+        <v>17.03358409016304</v>
       </c>
       <c r="J3">
-        <v>10.07572138251402</v>
+        <v>5.833420450423274</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.22312599818097</v>
+        <v>8.011346278660028</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.13912887565604</v>
+        <v>21.44515992297793</v>
       </c>
       <c r="C4">
-        <v>7.818335729163691</v>
+        <v>12.9863790273217</v>
       </c>
       <c r="D4">
-        <v>7.729529556533748</v>
+        <v>4.401457796207231</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.06910172073336</v>
+        <v>25.93353917720333</v>
       </c>
       <c r="G4">
-        <v>43.72919580645645</v>
+        <v>32.77287822517959</v>
       </c>
       <c r="H4">
-        <v>18.0488883786246</v>
+        <v>11.25002335973989</v>
       </c>
       <c r="I4">
-        <v>27.57275885126436</v>
+        <v>17.16991812678007</v>
       </c>
       <c r="J4">
-        <v>10.09248596293991</v>
+        <v>5.878359864952477</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.21360417817052</v>
+        <v>7.863998847746926</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.00739900826221</v>
+        <v>21.01654948404755</v>
       </c>
       <c r="C5">
-        <v>7.689144434008319</v>
+        <v>12.74488273688522</v>
       </c>
       <c r="D5">
-        <v>7.728521936733896</v>
+        <v>4.383403392009576</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.1001243032461</v>
+        <v>25.84717405528172</v>
       </c>
       <c r="G5">
-        <v>43.75745709962156</v>
+        <v>32.58217237250921</v>
       </c>
       <c r="H5">
-        <v>18.06810181854071</v>
+        <v>11.25591071021521</v>
       </c>
       <c r="I5">
-        <v>27.61384196384601</v>
+        <v>17.23038688295196</v>
       </c>
       <c r="J5">
-        <v>10.0995285229267</v>
+        <v>5.897008226123848</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.21014560647106</v>
+        <v>7.804027848892073</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.98547703205256</v>
+        <v>20.94460515216231</v>
       </c>
       <c r="C6">
-        <v>7.667454386630306</v>
+        <v>12.70435076770258</v>
       </c>
       <c r="D6">
-        <v>7.728360680311384</v>
+        <v>4.380410091980047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.10544230783991</v>
+        <v>25.83327093848081</v>
       </c>
       <c r="G6">
-        <v>43.76240041979576</v>
+        <v>32.55114160077292</v>
       </c>
       <c r="H6">
-        <v>18.07135345652575</v>
+        <v>11.25705606083712</v>
       </c>
       <c r="I6">
-        <v>27.6207669814287</v>
+        <v>17.24071547026976</v>
       </c>
       <c r="J6">
-        <v>10.10071068843276</v>
+        <v>5.900125242526364</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.20959685445451</v>
+        <v>7.794076316147526</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.13735568696816</v>
+        <v>21.43943145777268</v>
       </c>
       <c r="C7">
-        <v>7.816609404312063</v>
+        <v>12.98315108159407</v>
       </c>
       <c r="D7">
-        <v>7.72951556170162</v>
+        <v>4.401214004070158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.06950891679304</v>
+        <v>25.93234495205303</v>
       </c>
       <c r="G7">
-        <v>43.72956013518591</v>
+        <v>32.77026360037858</v>
       </c>
       <c r="H7">
-        <v>18.04914338916826</v>
+        <v>11.25009142318521</v>
       </c>
       <c r="I7">
-        <v>27.57330599147209</v>
+        <v>17.17071414551418</v>
       </c>
       <c r="J7">
-        <v>10.09258008678052</v>
+        <v>5.878609995847849</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.21355582401718</v>
+        <v>7.863189661908682</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.79919706693741</v>
+        <v>23.55708389384796</v>
       </c>
       <c r="C8">
-        <v>8.43978399665391</v>
+        <v>14.15056005875813</v>
       </c>
       <c r="D8">
-        <v>7.735487783885178</v>
+        <v>4.49362959260911</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.93526420969756</v>
+        <v>26.43448600688781</v>
       </c>
       <c r="G8">
-        <v>43.62123134349037</v>
+        <v>33.83028455236936</v>
       </c>
       <c r="H8">
-        <v>17.9600596582092</v>
+        <v>11.24471211487988</v>
       </c>
       <c r="I8">
-        <v>27.37890268563205</v>
+        <v>16.90577419843693</v>
       </c>
       <c r="J8">
-        <v>10.05855098840917</v>
+        <v>5.786589321743561</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.23472038138953</v>
+        <v>8.168636221027317</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.05507946396622</v>
+        <v>27.3593120314223</v>
       </c>
       <c r="C9">
-        <v>9.532893579650446</v>
+        <v>16.2141485553329</v>
       </c>
       <c r="D9">
-        <v>7.750304003829359</v>
+        <v>4.676559606145046</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.76019318263818</v>
+        <v>27.66336319139682</v>
       </c>
       <c r="G9">
-        <v>43.54170507451144</v>
+        <v>36.24650809066587</v>
       </c>
       <c r="H9">
-        <v>17.81762971428136</v>
+        <v>11.33467096305176</v>
       </c>
       <c r="I9">
-        <v>27.05200884794935</v>
+        <v>16.5663196442443</v>
       </c>
       <c r="J9">
-        <v>9.998424728742711</v>
+        <v>5.616080905331957</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.28931554659242</v>
+        <v>8.76499233317519</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.94255358571565</v>
+        <v>29.88316780157161</v>
       </c>
       <c r="C10">
-        <v>10.25557549827767</v>
+        <v>17.59450274310178</v>
       </c>
       <c r="D10">
-        <v>7.763043700401792</v>
+        <v>4.811658427293138</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.68595509731887</v>
+        <v>28.72306534568326</v>
       </c>
       <c r="G10">
-        <v>43.56532326443926</v>
+        <v>38.22777409999859</v>
       </c>
       <c r="H10">
-        <v>17.73282291273065</v>
+        <v>11.47068189363897</v>
       </c>
       <c r="I10">
-        <v>26.84524436793614</v>
+        <v>16.44899275258957</v>
       </c>
       <c r="J10">
-        <v>9.9582357989598</v>
+        <v>5.496305156986164</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.33722460013535</v>
+        <v>9.198297857972264</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.33684032364144</v>
+        <v>30.97461667316253</v>
       </c>
       <c r="C11">
-        <v>10.56664460532499</v>
+        <v>18.19365045002384</v>
       </c>
       <c r="D11">
-        <v>7.769233498175968</v>
+        <v>4.873227010888224</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.66410498497262</v>
+        <v>29.24063845457003</v>
       </c>
       <c r="G11">
-        <v>43.59403381539821</v>
+        <v>39.17377248413402</v>
       </c>
       <c r="H11">
-        <v>17.69858434924245</v>
+        <v>11.54959219298638</v>
       </c>
       <c r="I11">
-        <v>26.75849802430112</v>
+        <v>16.42950441260522</v>
       </c>
       <c r="J11">
-        <v>9.940809659347149</v>
+        <v>5.442875794284612</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.3606692737801</v>
+        <v>9.393833211432931</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.484656631738</v>
+        <v>31.37993178496919</v>
       </c>
       <c r="C12">
-        <v>10.68188297853911</v>
+        <v>18.41646288073376</v>
       </c>
       <c r="D12">
-        <v>7.771633366093374</v>
+        <v>4.896555868328918</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.6575525910483</v>
+        <v>29.44184383955586</v>
       </c>
       <c r="G12">
-        <v>43.60749608163418</v>
+        <v>39.53843370451406</v>
       </c>
       <c r="H12">
-        <v>17.68624604951725</v>
+        <v>11.58207558222998</v>
       </c>
       <c r="I12">
-        <v>26.72670635173462</v>
+        <v>16.42745199141167</v>
       </c>
       <c r="J12">
-        <v>9.934333275295625</v>
+        <v>5.422783715523351</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.36978040907299</v>
+        <v>9.467616266177645</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.45289011309291</v>
+        <v>31.29299281972247</v>
       </c>
       <c r="C13">
-        <v>10.65717822082975</v>
+        <v>18.36865613824784</v>
       </c>
       <c r="D13">
-        <v>7.771114037120245</v>
+        <v>4.891530959413488</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.65888708310462</v>
+        <v>29.39827714904175</v>
       </c>
       <c r="G13">
-        <v>43.60448147420117</v>
+        <v>39.45961093047427</v>
       </c>
       <c r="H13">
-        <v>17.68887538652334</v>
+        <v>11.57496156979654</v>
       </c>
       <c r="I13">
-        <v>26.73350614004512</v>
+        <v>16.42764966354461</v>
       </c>
       <c r="J13">
-        <v>9.935722640630781</v>
+        <v>5.42710485002603</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.36780786318566</v>
+        <v>9.451737883172873</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.34903188682911</v>
+        <v>31.00812145235812</v>
       </c>
       <c r="C14">
-        <v>10.57617664102889</v>
+        <v>18.21206254179836</v>
       </c>
       <c r="D14">
-        <v>7.769429820527947</v>
+        <v>4.875146009565161</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.6635313699274</v>
+        <v>29.25708667633015</v>
       </c>
       <c r="G14">
-        <v>43.59508942734101</v>
+        <v>39.20364434497765</v>
       </c>
       <c r="H14">
-        <v>17.69755668525623</v>
+        <v>11.55221160764016</v>
       </c>
       <c r="I14">
-        <v>26.75586128086049</v>
+        <v>16.4292261260502</v>
       </c>
       <c r="J14">
-        <v>9.940274391196487</v>
+        <v>5.441220060966852</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.36141420465694</v>
+        <v>9.399908808206574</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.28521766401875</v>
+        <v>30.83259339911532</v>
       </c>
       <c r="C15">
-        <v>10.52622753160525</v>
+        <v>18.11561636437564</v>
       </c>
       <c r="D15">
-        <v>7.768405448555174</v>
+        <v>4.865111578821706</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.6666005577552</v>
+        <v>29.17128533370618</v>
       </c>
       <c r="G15">
-        <v>43.58967398422666</v>
+        <v>39.04769568345854</v>
       </c>
       <c r="H15">
-        <v>17.70295598461147</v>
+        <v>11.53861993328392</v>
       </c>
       <c r="I15">
-        <v>26.76969231503901</v>
+        <v>16.43089932055937</v>
       </c>
       <c r="J15">
-        <v>9.943078408139842</v>
+        <v>5.449883970379973</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.35752813803634</v>
+        <v>9.368126994160916</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.91658441205712</v>
+        <v>29.81071185696129</v>
       </c>
       <c r="C16">
-        <v>10.2348892789195</v>
+        <v>17.55477332166308</v>
       </c>
       <c r="D16">
-        <v>7.762647052241434</v>
+        <v>4.807636815316466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.68762360781144</v>
+        <v>28.68996423389062</v>
       </c>
       <c r="G16">
-        <v>43.56380914410159</v>
+        <v>38.16685016244858</v>
       </c>
       <c r="H16">
-        <v>17.73514807840267</v>
+        <v>11.46588073542142</v>
       </c>
       <c r="I16">
-        <v>26.85106107655992</v>
+        <v>16.45098669866244</v>
       </c>
       <c r="J16">
-        <v>9.959391813873379</v>
+        <v>5.499817195039318</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.33572529525927</v>
+        <v>9.185484226642348</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68792445316495</v>
+        <v>29.16941467353164</v>
       </c>
       <c r="C17">
-        <v>10.05162230706417</v>
+        <v>17.20338642530196</v>
       </c>
       <c r="D17">
-        <v>7.759214929299107</v>
+        <v>4.772404529063304</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.70357959049962</v>
+        <v>28.40385879056935</v>
       </c>
       <c r="G17">
-        <v>43.5525494184204</v>
+        <v>37.63792491206733</v>
       </c>
       <c r="H17">
-        <v>17.75601070517299</v>
+        <v>11.42572937789502</v>
       </c>
       <c r="I17">
-        <v>26.90285504949436</v>
+        <v>16.47230643764736</v>
       </c>
       <c r="J17">
-        <v>9.969618392488378</v>
+        <v>5.53071241153426</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.32276979318955</v>
+        <v>9.073007135232109</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.55552506395566</v>
+        <v>28.79521394664424</v>
       </c>
       <c r="C18">
-        <v>9.944548141140436</v>
+        <v>16.99856409195126</v>
       </c>
       <c r="D18">
-        <v>7.757278038733677</v>
+        <v>4.752150339075557</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.71387875007567</v>
+        <v>28.24263467144589</v>
       </c>
       <c r="G18">
-        <v>43.54776404367193</v>
+        <v>37.33790807308301</v>
       </c>
       <c r="H18">
-        <v>17.76841871068196</v>
+        <v>11.40423003243357</v>
       </c>
       <c r="I18">
-        <v>26.93333344319789</v>
+        <v>16.48772997246592</v>
       </c>
       <c r="J18">
-        <v>9.975581055496837</v>
+        <v>5.548582772352822</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.31547375997825</v>
+        <v>9.008166384533475</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.51055005097414</v>
+        <v>28.66759367577282</v>
       </c>
       <c r="C19">
-        <v>9.908009403946616</v>
+        <v>16.92874680553846</v>
       </c>
       <c r="D19">
-        <v>7.756628649780341</v>
+        <v>4.745294507878016</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.71755827323876</v>
+        <v>28.18861675508644</v>
       </c>
       <c r="G19">
-        <v>43.54643395462848</v>
+        <v>37.23705044362149</v>
       </c>
       <c r="H19">
-        <v>17.77268989590717</v>
+        <v>11.39721998727493</v>
       </c>
       <c r="I19">
-        <v>26.94377086943754</v>
+        <v>16.49348143727366</v>
       </c>
       <c r="J19">
-        <v>9.977613772431187</v>
+        <v>5.554650926909035</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.31303030250584</v>
+        <v>8.986188396846456</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.71235781607785</v>
+        <v>29.23823379593449</v>
       </c>
       <c r="C20">
-        <v>10.07130370744802</v>
+        <v>17.24107258839499</v>
       </c>
       <c r="D20">
-        <v>7.759576442811618</v>
+        <v>4.776154000129517</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.70176489879378</v>
+        <v>28.43396916645991</v>
       </c>
       <c r="G20">
-        <v>43.5535729718036</v>
+        <v>37.69379457425397</v>
       </c>
       <c r="H20">
-        <v>17.75374755609394</v>
+        <v>11.42983741974024</v>
       </c>
       <c r="I20">
-        <v>26.89727025851173</v>
+        <v>16.46970652349105</v>
       </c>
       <c r="J20">
-        <v>9.968521417552848</v>
+        <v>5.527413268804865</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.32413285127813</v>
+        <v>9.084995998567337</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.37957906635246</v>
+        <v>31.09201071113891</v>
       </c>
       <c r="C21">
-        <v>10.60003824739553</v>
+        <v>18.25816779164541</v>
       </c>
       <c r="D21">
-        <v>7.769923004374793</v>
+        <v>4.879958286823216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.66212044795931</v>
+        <v>29.2984154393643</v>
       </c>
       <c r="G21">
-        <v>43.59777776666773</v>
+        <v>39.27865319164852</v>
       </c>
       <c r="H21">
-        <v>17.69498973493246</v>
+        <v>11.55882200125947</v>
       </c>
       <c r="I21">
-        <v>26.74926629260315</v>
+        <v>16.42861479051123</v>
       </c>
       <c r="J21">
-        <v>9.938934111214595</v>
+        <v>5.437070365495925</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.36328588426457</v>
+        <v>9.415139610379759</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.80689841203506</v>
+        <v>32.25705235158035</v>
       </c>
       <c r="C22">
-        <v>10.93069065820876</v>
+        <v>18.89920421864849</v>
       </c>
       <c r="D22">
-        <v>7.777010678624226</v>
+        <v>4.947883601087829</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.64624893588406</v>
+        <v>29.89381185027397</v>
       </c>
       <c r="G22">
-        <v>43.64176637932118</v>
+        <v>40.35196806375055</v>
       </c>
       <c r="H22">
-        <v>17.66024463951168</v>
+        <v>11.65835672810144</v>
       </c>
       <c r="I22">
-        <v>26.65870259255686</v>
+        <v>16.43303314628719</v>
       </c>
       <c r="J22">
-        <v>9.920310953904831</v>
+        <v>5.378838806021123</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.39023150316655</v>
+        <v>9.629370576108901</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.57967223755009</v>
+        <v>31.63944906589232</v>
       </c>
       <c r="C23">
-        <v>10.75558266772769</v>
+        <v>18.55921380559034</v>
       </c>
       <c r="D23">
-        <v>7.77319832811679</v>
+        <v>4.911623051723703</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.65379916940309</v>
+        <v>29.57321702571564</v>
       </c>
       <c r="G23">
-        <v>43.61690607713946</v>
+        <v>39.77567709366904</v>
       </c>
       <c r="H23">
-        <v>17.6784532241916</v>
+        <v>11.60378886197748</v>
       </c>
       <c r="I23">
-        <v>26.70647204798446</v>
+        <v>16.4276589986728</v>
       </c>
       <c r="J23">
-        <v>9.930185354517791</v>
+        <v>5.409847755881748</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.37572741444322</v>
+        <v>9.515181486603506</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.70131440931885</v>
+        <v>29.20713784610511</v>
       </c>
       <c r="C24">
-        <v>10.06241107643242</v>
+        <v>17.2240434169548</v>
       </c>
       <c r="D24">
-        <v>7.759412889501085</v>
+        <v>4.774458859977908</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.7025818144096</v>
+        <v>28.42034611389337</v>
       </c>
       <c r="G24">
-        <v>43.55310496573249</v>
+        <v>37.66852322460397</v>
       </c>
       <c r="H24">
-        <v>17.75476943696456</v>
+        <v>11.42797525106043</v>
       </c>
       <c r="I24">
-        <v>26.89979295817403</v>
+        <v>16.47087211591093</v>
       </c>
       <c r="J24">
-        <v>9.969017100499244</v>
+        <v>5.52890447307111</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.32351613813727</v>
+        <v>9.079576379423399</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.72086443563124</v>
+        <v>26.37865124212981</v>
       </c>
       <c r="C25">
-        <v>9.251201496383379</v>
+        <v>15.67991916644356</v>
       </c>
       <c r="D25">
-        <v>7.745967350735469</v>
+        <v>4.626929225999826</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.79804509810899</v>
+        <v>27.303886892483</v>
       </c>
       <c r="G25">
-        <v>43.54887219318033</v>
+        <v>35.55662365472325</v>
       </c>
       <c r="H25">
-        <v>17.85268922983849</v>
+        <v>11.29868244294292</v>
       </c>
       <c r="I25">
-        <v>27.13459697123688</v>
+        <v>16.63665173828114</v>
       </c>
       <c r="J25">
-        <v>10.01398760648383</v>
+        <v>5.661199704089858</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.27316251582346</v>
+        <v>8.604303675492089</v>
       </c>
       <c r="M25">
         <v>0</v>
